--- a/Manifest-Email-CAC.xlsx
+++ b/Manifest-Email-CAC.xlsx
@@ -582,7 +582,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
@@ -628,7 +628,7 @@
       </c>
       <c r="B5" s="24" t="inlineStr">
         <is>
-          <t>From 03-27-2022 to 03-28-2022</t>
+          <t>From 04-18-2022 to 04-29-2022</t>
         </is>
       </c>
       <c r="C5" s="16" t="n"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifest.CAC@cdcr.ca.gov </t>
+          <t>Manifest.CAC@cdcr.ca.gov</t>
         </is>
       </c>
       <c r="F6" s="21" t="n"/>
@@ -671,12 +671,14 @@
     <row r="11" ht="88.34999999999999" customHeight="1" s="17">
       <c r="A11" s="27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">qwe
+</t>
         </is>
       </c>
       <c r="B11" s="28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">qwe
+</t>
         </is>
       </c>
       <c r="C11" s="29" t="n"/>
@@ -695,9 +697,6 @@
     </row>
     <row r="16" ht="12.8" customHeight="1" s="17">
       <c r="A16" s="30" t="n"/>
-      <c r="B16" s="16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="17">
       <c r="A17" s="30" t="n"/>
@@ -707,7 +706,7 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>